--- a/medicine/Sexualité et sexologie/Rôle_sexuel/Rôle_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Rôle_sexuel/Rôle_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%B4le_sexuel</t>
+          <t>Rôle_sexuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biologie, les rôles sexuels définissent, chez une espèce sexuée donnée, le sexe pour lequel la compétition pour l'accès à la reproduction est la plus forte, c'est-à-dire le sexe sur lequel la pression de sélection sexuelle exercée est la plus forte. Si les mâles combattent le plus activement pour l'accès à la reproduction, les rôles sexuels sont qualifiés de conventionnels. Si ce sont les femelles, l'espèce est alors dite à rôles sexuels inversés[1]. La famille des Syngnathidae (syngnathes, hippocampes…) présente également une inversion des rôles sexuels avec le mâle qui incube les œufs[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biologie, les rôles sexuels définissent, chez une espèce sexuée donnée, le sexe pour lequel la compétition pour l'accès à la reproduction est la plus forte, c'est-à-dire le sexe sur lequel la pression de sélection sexuelle exercée est la plus forte. Si les mâles combattent le plus activement pour l'accès à la reproduction, les rôles sexuels sont qualifiés de conventionnels. Si ce sont les femelles, l'espèce est alors dite à rôles sexuels inversés. La famille des Syngnathidae (syngnathes, hippocampes…) présente également une inversion des rôles sexuels avec le mâle qui incube les œufs.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%B4le_sexuel</t>
+          <t>Rôle_sexuel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,29 +523,31 @@
           <t>Liste d'espèces à rôles sexuels inversés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Abedus herberti[3]
-Actitis macularia[4]
-Alytes obstetricans[5]
-Badis badis[5]
-Chromis notata[5]
-Chrysiptera cyanea[5]
-Colostethus trinitatis[6]
-Crypturellus variegatus[7]
-Dendrobates auratus[8]
-Eleutherodactylus coqui[5]
-Empis borealis[9]
-Etheostoma olmstedi[5]
-Forsterygion varium[5]
-Gallinula chloropus[10]
-Gasterosteus aculeatus[5]
-Hyla rosenbergi[5]
-Jacana jacana[11]
-Nerophis ophidion[12]
-Oxylebius pictus[5]
-Pimephales promelas[5]
-Siphonostoma typhle[12]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abedus herberti
+Actitis macularia
+Alytes obstetricans
+Badis badis
+Chromis notata
+Chrysiptera cyanea
+Colostethus trinitatis
+Crypturellus variegatus
+Dendrobates auratus
+Eleutherodactylus coqui
+Empis borealis
+Etheostoma olmstedi
+Forsterygion varium
+Gallinula chloropus
+Gasterosteus aculeatus
+Hyla rosenbergi
+Jacana jacana
+Nerophis ophidion
+Oxylebius pictus
+Pimephales promelas
+Siphonostoma typhle</t>
         </is>
       </c>
     </row>
